--- a/5_Analysis/5_1_Content_Analysis_Plot_&_Jaccard_Index/DATA/Depression_Matrix_extra.xlsx
+++ b/5_Analysis/5_1_Content_Analysis_Plot_&_Jaccard_Index/DATA/Depression_Matrix_extra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y't\Desktop\内容分析参考文献\抑郁\R1\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\心理健康测量\MH_CPL\5_Analysis\5_1_Content_Analysis_Plot_&amp;_Jaccard_Index\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78D8CD1-1ACC-415A-87EE-5F87426C8A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EECE27B-1494-4000-8487-2F4622BD0D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{591AB8AB-CA8A-409A-92FC-4921B6F7DC42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{591AB8AB-CA8A-409A-92FC-4921B6F7DC42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,11 +587,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3C05A8-784A-4E9A-839F-A1B1D714B561}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.77734375" customWidth="1"/>
   </cols>
@@ -788,7 +788,7 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>17</v>
